--- a/kels/fittingNLL.xlsx
+++ b/kels/fittingNLL.xlsx
@@ -794,157 +794,157 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
                 <c:pt idx="0">
-                  <c:v>1.010908823858175</c:v>
+                  <c:v>1.014452199734715</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.010908823858182</c:v>
+                  <c:v>1.014452199734722</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.010908823858177</c:v>
+                  <c:v>1.014452199734717</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.010908823858147</c:v>
+                  <c:v>1.01445219973469</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.010908823858142</c:v>
+                  <c:v>1.014452199734708</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.010908823858137</c:v>
+                  <c:v>1.014452199734703</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.010908823858132</c:v>
+                  <c:v>1.014452199734698</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.010908823858176</c:v>
+                  <c:v>1.014452199734694</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.010908823858171</c:v>
+                  <c:v>1.014452199734689</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.010908823858166</c:v>
+                  <c:v>1.01445219973473</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.010908823858161</c:v>
+                  <c:v>1.014452199734725</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.010908823858156</c:v>
+                  <c:v>1.014452199734766</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.010908823858151</c:v>
+                  <c:v>1.014452199734761</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.010908823858145</c:v>
+                  <c:v>1.014452199734711</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.01090882385814</c:v>
+                  <c:v>1.014452199734706</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.010908823858135</c:v>
+                  <c:v>1.014452199734792</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.01090882385813</c:v>
+                  <c:v>1.014452199734788</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.010908823858125</c:v>
+                  <c:v>1.014452199734783</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.01090882385812</c:v>
+                  <c:v>1.014452199734778</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.010908823858214</c:v>
+                  <c:v>1.014452199734774</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.010908823858208</c:v>
+                  <c:v>1.014452199734769</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.010908823858203</c:v>
+                  <c:v>1.014452199734764</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.010908823858297</c:v>
+                  <c:v>1.01445219973476</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.010908823858292</c:v>
+                  <c:v>1.014452199734755</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.010908823858287</c:v>
+                  <c:v>1.01445219973475</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.010908823858282</c:v>
+                  <c:v>1.014452199734745</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.010908823858277</c:v>
+                  <c:v>1.014452199734741</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.010908823858272</c:v>
+                  <c:v>1.014452199734736</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.010908823858267</c:v>
+                  <c:v>1.014452199734731</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.010908823858162</c:v>
+                  <c:v>1.014452199734727</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.010908823858256</c:v>
+                  <c:v>1.014452199734813</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.01090882385835</c:v>
+                  <c:v>1.014452199734717</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.010908823858246</c:v>
+                  <c:v>1.014452199734803</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.01090882385834</c:v>
+                  <c:v>1.014452199734708</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.010908823858236</c:v>
+                  <c:v>1.014452199734794</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.01090882385833</c:v>
+                  <c:v>1.014452199734698</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.010908823858226</c:v>
+                  <c:v>1.014452199734785</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.010908823858319</c:v>
+                  <c:v>1.014452199734689</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.010908823858215</c:v>
+                  <c:v>1.014452199734775</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.01090882385831</c:v>
+                  <c:v>1.014452199734861</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.010908823858205</c:v>
+                  <c:v>1.014452199734766</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.0109088238583</c:v>
+                  <c:v>1.014452199734852</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.010908823858195</c:v>
+                  <c:v>1.014452199734756</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.010908823858289</c:v>
+                  <c:v>1.014452199734843</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.010908823858185</c:v>
+                  <c:v>1.014452199734747</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.010908823858278</c:v>
+                  <c:v>1.014452199734833</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.010908823858372</c:v>
+                  <c:v>1.014452199734738</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.010908823858268</c:v>
+                  <c:v>1.014452199734824</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.010908823858362</c:v>
+                  <c:v>1.014452199734728</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.010908823858258</c:v>
+                  <c:v>1.014452199734814</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.010908823858352</c:v>
+                  <c:v>1.014452199734719</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1353,91 +1353,91 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>1.027140087425328</c:v>
+                  <c:v>1.018016617206916</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.033960479507561</c:v>
+                  <c:v>1.035502422271337</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.027140087425328</c:v>
+                  <c:v>1.018016617206916</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.087880443801641</c:v>
+                  <c:v>1.07406913905722</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.083761057357111</c:v>
+                  <c:v>1.080097036047728</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.062447385544098</c:v>
+                  <c:v>1.061171069531956</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.012744301765231</c:v>
+                  <c:v>1.004996104542621</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.030034173024051</c:v>
+                  <c:v>1.020645869502719</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.963651844077668</c:v>
+                  <c:v>0.970416165107879</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.948038898682724</c:v>
+                  <c:v>0.947966623127046</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.960568184935781</c:v>
+                  <c:v>0.958748063049549</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.095956485394316</c:v>
+                  <c:v>1.090790648451001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.99589287287056</c:v>
+                  <c:v>0.989882227093295</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.139170115439578</c:v>
+                  <c:v>1.124483698053801</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.03685222792826</c:v>
+                  <c:v>1.038125682618462</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.92439149704332</c:v>
+                  <c:v>0.928641107996876</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.015606919253387</c:v>
+                  <c:v>1.007577478104356</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.010908823858162</c:v>
+                  <c:v>1.01445219973471</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.08788044380164</c:v>
+                  <c:v>1.07406913905722</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.128830388570134</c:v>
+                  <c:v>1.113549333157352</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.078615710895128</c:v>
+                  <c:v>1.07555325112873</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.047336752634834</c:v>
+                  <c:v>1.036446172821678</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.09274982563926</c:v>
+                  <c:v>1.078657130585783</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.033960479507561</c:v>
+                  <c:v>1.035502422271337</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.008067294693573</c:v>
+                  <c:v>1.011839967635212</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.940797704963092</c:v>
+                  <c:v>0.941842367970634</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.998653181388792</c:v>
+                  <c:v>0.992347969946297</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.070655178225825</c:v>
+                  <c:v>1.068490803952461</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.009893887607504</c:v>
+                  <c:v>1.002429646538554</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1929,8 +1929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1996,15 +1996,15 @@
       </c>
       <c r="I2">
         <f>$E$50+$E$49*SIN((G2-$E$51)*2*PI())</f>
-        <v>1.0271400874253285</v>
+        <v>1.0180166172069158</v>
       </c>
       <c r="J2">
         <f>H2-I2</f>
-        <v>-0.23547342075866184</v>
+        <v>-0.2263499505402492</v>
       </c>
       <c r="K2">
         <f>J2^2</f>
-        <v>5.5447731883785802E-2</v>
+        <v>5.1234300109573257E-2</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -2033,15 +2033,15 @@
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I30" si="0">$E$50+$E$49*SIN((G3-$E$51)*2*PI())</f>
-        <v>1.0339604795075608</v>
+        <v>1.0355024222713374</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J30" si="1">H3-I3</f>
-        <v>-0.17146047950756071</v>
+        <v>-0.17300242227133733</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K30" si="2">J3^2</f>
-        <v>2.9398696032962648E-2</v>
+        <v>2.9929838111750116E-2</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2070,15 +2070,15 @@
       </c>
       <c r="I4">
         <f t="shared" si="0"/>
-        <v>1.0271400874253285</v>
+        <v>1.0180166172069158</v>
       </c>
       <c r="J4">
         <f t="shared" si="1"/>
-        <v>-0.11880675409199515</v>
+        <v>-0.1096832838735825</v>
       </c>
       <c r="K4">
         <f t="shared" si="2"/>
-        <v>1.4115044817875805E-2</v>
+        <v>1.2030422761292884E-2</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2107,15 +2107,15 @@
       </c>
       <c r="I5">
         <f t="shared" si="0"/>
-        <v>1.087880443801641</v>
+        <v>1.0740691390572199</v>
       </c>
       <c r="J5">
         <f t="shared" si="1"/>
-        <v>-0.12954711046830758</v>
+        <v>-0.11573580572388653</v>
       </c>
       <c r="K5">
         <f t="shared" si="2"/>
-        <v>1.6782453830687886E-2</v>
+        <v>1.3394776726557206E-2</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2144,15 +2144,15 @@
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
-        <v>1.0837610573571115</v>
+        <v>1.0800970360477276</v>
       </c>
       <c r="J6">
         <f t="shared" si="1"/>
-        <v>-8.7927724023778131E-2</v>
+        <v>-8.4263702714394206E-2</v>
       </c>
       <c r="K6">
         <f t="shared" si="2"/>
-        <v>7.7312846520016902E-3</v>
+        <v>7.1003715951398058E-3</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2181,15 +2181,15 @@
       </c>
       <c r="I7">
         <f t="shared" si="0"/>
-        <v>1.0624473855440979</v>
+        <v>1.0611710695319565</v>
       </c>
       <c r="J7">
         <f t="shared" si="1"/>
-        <v>2.5052614455902011E-2</v>
+        <v>2.632893046804341E-2</v>
       </c>
       <c r="K7">
         <f t="shared" si="2"/>
-        <v>6.2763349107607049E-4</v>
+        <v>6.9321257959106461E-4</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2218,15 +2218,15 @@
       </c>
       <c r="I8">
         <f t="shared" si="0"/>
-        <v>1.0127443017652307</v>
+        <v>1.0049961045426208</v>
       </c>
       <c r="J8">
         <f t="shared" si="1"/>
-        <v>-2.5244301765230626E-2</v>
+        <v>-1.7496104542620738E-2</v>
       </c>
       <c r="K8">
         <f t="shared" si="2"/>
-        <v>6.372747716140261E-4</v>
+        <v>3.0611367416631403E-4</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2255,15 +2255,15 @@
       </c>
       <c r="I9">
         <f t="shared" si="0"/>
-        <v>1.0300341730240505</v>
+        <v>1.0206458695027185</v>
       </c>
       <c r="J9">
         <f t="shared" si="1"/>
-        <v>-4.2534173024050492E-2</v>
+        <v>-3.3145869502718472E-2</v>
       </c>
       <c r="K9">
         <f t="shared" si="2"/>
-        <v>1.8091558748398646E-3</v>
+        <v>1.0986486650912425E-3</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2292,15 +2292,15 @@
       </c>
       <c r="I10">
         <f t="shared" si="0"/>
-        <v>0.96365184407766757</v>
+        <v>0.97041616510787865</v>
       </c>
       <c r="J10">
         <f t="shared" si="1"/>
-        <v>-2.6151844077667574E-2</v>
+        <v>-3.2916165107878648E-2</v>
       </c>
       <c r="K10">
         <f t="shared" si="2"/>
-        <v>6.8391894866263656E-4</v>
+        <v>1.0834739254091277E-3</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2329,15 +2329,15 @@
       </c>
       <c r="I11">
         <f t="shared" si="0"/>
-        <v>0.9480388986827244</v>
+        <v>0.94796662312704605</v>
       </c>
       <c r="J11">
         <f t="shared" si="1"/>
-        <v>-6.8872232016057744E-2</v>
+        <v>-6.8799956460379397E-2</v>
       </c>
       <c r="K11">
         <f t="shared" si="2"/>
-        <v>4.7433843428736893E-3</v>
+        <v>4.733434008950101E-3</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2366,15 +2366,15 @@
       </c>
       <c r="I12">
         <f t="shared" si="0"/>
-        <v>0.96056818493578056</v>
+        <v>0.95874806304954896</v>
       </c>
       <c r="J12">
         <f t="shared" si="1"/>
-        <v>-4.3901518269113926E-2</v>
+        <v>-4.208139638288233E-2</v>
       </c>
       <c r="K12">
         <f t="shared" si="2"/>
-        <v>1.9273433063333439E-3</v>
+        <v>1.7708439215332621E-3</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2403,15 +2403,15 @@
       </c>
       <c r="I13">
         <f t="shared" si="0"/>
-        <v>1.0959564853943162</v>
+        <v>1.090790648451001</v>
       </c>
       <c r="J13">
         <f t="shared" si="1"/>
-        <v>-9.5956485394316227E-2</v>
+        <v>-9.0790648451001044E-2</v>
       </c>
       <c r="K13">
         <f t="shared" si="2"/>
-        <v>9.207647089229623E-3</v>
+        <v>8.2429418461532587E-3</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2440,15 +2440,15 @@
       </c>
       <c r="I14">
         <f t="shared" si="0"/>
-        <v>0.99589287287056005</v>
+        <v>0.98988222709329532</v>
       </c>
       <c r="J14">
         <f t="shared" si="1"/>
-        <v>8.3273793796106554E-2</v>
+        <v>8.9284439573371288E-2</v>
       </c>
       <c r="K14">
         <f t="shared" si="2"/>
-        <v>6.9345247331964741E-3</v>
+        <v>7.9717111499309889E-3</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2477,15 +2477,15 @@
       </c>
       <c r="I15">
         <f t="shared" si="0"/>
-        <v>1.1391701154395781</v>
+        <v>1.1244836980538013</v>
       </c>
       <c r="J15">
         <f t="shared" si="1"/>
-        <v>-3.0836782106244742E-2</v>
+        <v>-1.6150364720467936E-2</v>
       </c>
       <c r="K15">
         <f t="shared" si="2"/>
-        <v>9.5090713066801587E-4</v>
+        <v>2.6083428060413535E-4</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2511,15 +2511,15 @@
       </c>
       <c r="I16">
         <f t="shared" si="0"/>
-        <v>1.036852227928259</v>
+        <v>1.0381256826184622</v>
       </c>
       <c r="J16">
         <f t="shared" si="1"/>
-        <v>6.4777207174104845E-4</v>
+        <v>-6.2568261846207562E-4</v>
       </c>
       <c r="K16">
         <f t="shared" si="2"/>
-        <v>4.1960865692769E-7</v>
+        <v>3.914787390455593E-7</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -2548,15 +2548,15 @@
       </c>
       <c r="I17">
         <f t="shared" si="0"/>
-        <v>0.92439149704332013</v>
+        <v>0.92864110799687638</v>
       </c>
       <c r="J17">
         <f t="shared" si="1"/>
-        <v>8.9418362900132164E-3</v>
+        <v>4.6922253364569677E-3</v>
       </c>
       <c r="K17">
         <f t="shared" si="2"/>
-        <v>7.9956436237397325E-5</v>
+        <v>2.2016978608088703E-5</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -2585,15 +2585,15 @@
       </c>
       <c r="I18">
         <f t="shared" si="0"/>
-        <v>1.0156069192533865</v>
+        <v>1.0075774781043561</v>
       </c>
       <c r="J18">
         <f t="shared" si="1"/>
-        <v>3.4393080746613514E-2</v>
+        <v>4.2422521895643994E-2</v>
       </c>
       <c r="K18">
         <f t="shared" si="2"/>
-        <v>1.1828840032430772E-3</v>
+        <v>1.7996703639863942E-3</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -2622,15 +2622,15 @@
       </c>
       <c r="I19">
         <f t="shared" si="0"/>
-        <v>1.0109088238581625</v>
+        <v>1.0144521997347102</v>
       </c>
       <c r="J19">
         <f t="shared" si="1"/>
-        <v>0.11825784280850415</v>
+        <v>0.11471446693195642</v>
       </c>
       <c r="K19">
         <f t="shared" si="2"/>
-        <v>1.3984917385720878E-2</v>
+        <v>1.3159408923482921E-2</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -2659,15 +2659,15 @@
       </c>
       <c r="I20">
         <f t="shared" si="0"/>
-        <v>1.0878804438016405</v>
+        <v>1.0740691390572201</v>
       </c>
       <c r="J20">
         <f t="shared" si="1"/>
-        <v>7.045288953169293E-2</v>
+        <v>8.4264194276113313E-2</v>
       </c>
       <c r="K20">
         <f t="shared" si="2"/>
-        <v>4.9636096433649272E-3</v>
+        <v>7.1004544370025678E-3</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -2696,15 +2696,15 @@
       </c>
       <c r="I21">
         <f t="shared" si="0"/>
-        <v>1.1288303885701343</v>
+        <v>1.1135493331573518</v>
       </c>
       <c r="J21">
         <f t="shared" si="1"/>
-        <v>8.6696114298656646E-3</v>
+        <v>2.3950666842648127E-2</v>
       </c>
       <c r="K21">
         <f t="shared" si="2"/>
-        <v>7.5162162344857375E-5</v>
+        <v>5.7363444220752445E-4</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -2733,15 +2733,15 @@
       </c>
       <c r="I22">
         <f t="shared" si="0"/>
-        <v>1.0786157108951282</v>
+        <v>1.0755532511287298</v>
       </c>
       <c r="J22">
         <f t="shared" si="1"/>
-        <v>8.8842891048717121E-3</v>
+        <v>1.1946748871270119E-2</v>
       </c>
       <c r="K22">
         <f t="shared" si="2"/>
-        <v>7.8930592898942214E-5</v>
+        <v>1.4272480859319386E-4</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -2770,15 +2770,15 @@
       </c>
       <c r="I23">
         <f t="shared" si="0"/>
-        <v>1.0473367526348345</v>
+        <v>1.0364461728216785</v>
       </c>
       <c r="J23">
         <f t="shared" si="1"/>
-        <v>-1.5034193015011077E-3</v>
+        <v>9.3871605116548906E-3</v>
       </c>
       <c r="K23">
         <f t="shared" si="2"/>
-        <v>2.2602695961260788E-6</v>
+        <v>8.8118782471572913E-5</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -2807,15 +2807,15 @@
       </c>
       <c r="I24">
         <f t="shared" si="0"/>
-        <v>1.09274982563926</v>
+        <v>1.0786571305857831</v>
       </c>
       <c r="J24">
         <f t="shared" si="1"/>
-        <v>-9.2749825639260042E-2</v>
+        <v>-7.8657130585783053E-2</v>
       </c>
       <c r="K24">
         <f t="shared" si="2"/>
-        <v>8.6025301561131386E-3</v>
+        <v>6.186944191988928E-3</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -2844,15 +2844,15 @@
       </c>
       <c r="I25">
         <f t="shared" si="0"/>
-        <v>1.033960479507561</v>
+        <v>1.0355024222713374</v>
       </c>
       <c r="J25">
         <f t="shared" si="1"/>
-        <v>-1.3127146174227722E-2</v>
+        <v>-1.4669088938004116E-2</v>
       </c>
       <c r="K25">
         <f t="shared" si="2"/>
-        <v>1.723219666795415E-4</v>
+        <v>2.1518217027107471E-4</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -2881,15 +2881,15 @@
       </c>
       <c r="I26">
         <f t="shared" si="0"/>
-        <v>1.0080672946935729</v>
+        <v>1.0118399676352123</v>
       </c>
       <c r="J26">
         <f t="shared" si="1"/>
-        <v>0.10443270530642712</v>
+        <v>0.10066003236478771</v>
       </c>
       <c r="K26">
         <f t="shared" si="2"/>
-        <v>1.0906189937619052E-2</v>
+        <v>1.013244211568011E-2</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2918,15 +2918,15 @@
       </c>
       <c r="I27">
         <f t="shared" si="0"/>
-        <v>0.94079770496309156</v>
+        <v>0.94184236797063414</v>
       </c>
       <c r="J27">
         <f t="shared" si="1"/>
-        <v>0.22170229503690853</v>
+        <v>0.22065763202936595</v>
       </c>
       <c r="K27">
         <f t="shared" si="2"/>
-        <v>4.9151907624632438E-2</v>
+        <v>4.8689790572807062E-2</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2955,15 +2955,15 @@
       </c>
       <c r="I28">
         <f t="shared" si="0"/>
-        <v>0.998653181388792</v>
+        <v>0.99234796994629726</v>
       </c>
       <c r="J28">
         <f t="shared" si="1"/>
-        <v>0.20134681861120796</v>
+        <v>0.2076520300537027</v>
       </c>
       <c r="K28">
         <f t="shared" si="2"/>
-        <v>4.0540541364854681E-2</v>
+        <v>4.3119365585423848E-2</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2992,15 +2992,15 @@
       </c>
       <c r="I29">
         <f t="shared" si="0"/>
-        <v>1.0706551782258247</v>
+        <v>1.0684908039524612</v>
       </c>
       <c r="J29">
         <f t="shared" si="1"/>
-        <v>0.18767815510750863</v>
+        <v>0.18984252938087209</v>
       </c>
       <c r="K29">
         <f t="shared" si="2"/>
-        <v>3.5223089904558066E-2</v>
+        <v>3.6040185961727284E-2</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -3029,21 +3029,21 @@
       </c>
       <c r="I30">
         <f t="shared" si="0"/>
-        <v>1.0098938876075041</v>
+        <v>1.0024296465385545</v>
       </c>
       <c r="J30">
         <f t="shared" si="1"/>
-        <v>0.29010611239249595</v>
+        <v>0.29757035346144556</v>
       </c>
       <c r="K30">
         <f t="shared" si="2"/>
-        <v>8.416155644748749E-2</v>
+        <v>8.8548115259169641E-2</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="K31">
-        <f>SUM(K8:K22)</f>
-        <v>4.7260036029884676E-2</v>
+        <f>SUM(K8:K24)</f>
+        <v>5.4541365878918668E-2</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3074,7 +3074,7 @@
       </c>
       <c r="B43">
         <f>$E$50+$E$49*SIN((A43-$E$51)*2*PI())</f>
-        <v>1.0109088238581749</v>
+        <v>1.0144521997347153</v>
       </c>
       <c r="F43">
         <f>A43/240</f>
@@ -3082,7 +3082,7 @@
       </c>
       <c r="G43">
         <f>B43/240</f>
-        <v>4.2121200994090623E-3</v>
+        <v>4.226884165561314E-3</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -3091,7 +3091,7 @@
       </c>
       <c r="B44">
         <f t="shared" ref="B44:B93" si="3">$E$50+$E$49*SIN((A44-$E$51)*2*PI())</f>
-        <v>1.010908823858182</v>
+        <v>1.014452199734722</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -3100,7 +3100,7 @@
       </c>
       <c r="B45">
         <f t="shared" si="3"/>
-        <v>1.0109088238581769</v>
+        <v>1.0144521997347171</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -3109,7 +3109,7 @@
       </c>
       <c r="B46">
         <f t="shared" si="3"/>
-        <v>1.0109088238581472</v>
+        <v>1.0144521997346898</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -3118,7 +3118,7 @@
       </c>
       <c r="B47">
         <f t="shared" si="3"/>
-        <v>1.0109088238581421</v>
+        <v>1.0144521997347078</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -3127,7 +3127,7 @@
       </c>
       <c r="B48">
         <f t="shared" si="3"/>
-        <v>1.010908823858137</v>
+        <v>1.0144521997347031</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -3136,17 +3136,17 @@
       </c>
       <c r="B49">
         <f t="shared" si="3"/>
-        <v>1.0109088238581319</v>
+        <v>1.0144521997346985</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
       </c>
       <c r="D49">
-        <v>26.535963978242304</v>
+        <v>24.169749001938229</v>
       </c>
       <c r="E49">
         <f>D49/240</f>
-        <v>0.1105665165760096</v>
+        <v>0.10070728750807595</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -3155,17 +3155,17 @@
       </c>
       <c r="B50">
         <f t="shared" si="3"/>
-        <v>1.010908823858176</v>
+        <v>1.0144521997346938</v>
       </c>
       <c r="C50" t="s">
         <v>4</v>
       </c>
       <c r="D50">
-        <v>247.3320680319467</v>
+        <v>246.42228473739038</v>
       </c>
       <c r="E50">
         <f>D50/240</f>
-        <v>1.0305502834664446</v>
+        <v>1.0267595197391266</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -3174,17 +3174,17 @@
       </c>
       <c r="B51">
         <f t="shared" si="3"/>
-        <v>1.0109088238581709</v>
+        <v>1.0144521997346889</v>
       </c>
       <c r="C51" t="s">
         <v>3</v>
       </c>
       <c r="D51">
-        <v>1073.1783002571103</v>
+        <v>1075.3202681566399</v>
       </c>
       <c r="E51">
         <f>D51/240</f>
-        <v>4.4715762510712933</v>
+        <v>4.4805011173193332</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="B52">
         <f t="shared" si="3"/>
-        <v>1.0109088238581658</v>
+        <v>1.0144521997347298</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -3202,7 +3202,7 @@
       </c>
       <c r="B53">
         <f t="shared" si="3"/>
-        <v>1.0109088238581607</v>
+        <v>1.0144521997347251</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -3211,7 +3211,7 @@
       </c>
       <c r="B54">
         <f t="shared" si="3"/>
-        <v>1.0109088238581556</v>
+        <v>1.0144521997347657</v>
       </c>
       <c r="D54" t="s">
         <v>2</v>
@@ -3227,7 +3227,7 @@
       </c>
       <c r="B55">
         <f t="shared" si="3"/>
-        <v>1.0109088238581505</v>
+        <v>1.0144521997347611</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -3236,7 +3236,7 @@
       </c>
       <c r="B56">
         <f t="shared" si="3"/>
-        <v>1.0109088238581454</v>
+        <v>1.0144521997347109</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -3245,7 +3245,7 @@
       </c>
       <c r="B57">
         <f t="shared" si="3"/>
-        <v>1.0109088238581403</v>
+        <v>1.0144521997347062</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -3254,7 +3254,7 @@
       </c>
       <c r="B58">
         <f t="shared" si="3"/>
-        <v>1.0109088238581352</v>
+        <v>1.0144521997347924</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -3263,7 +3263,7 @@
       </c>
       <c r="B59">
         <f t="shared" si="3"/>
-        <v>1.0109088238581301</v>
+        <v>1.0144521997347877</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -3272,7 +3272,7 @@
       </c>
       <c r="B60">
         <f t="shared" si="3"/>
-        <v>1.010908823858125</v>
+        <v>1.0144521997347831</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -3281,7 +3281,7 @@
       </c>
       <c r="B61">
         <f t="shared" si="3"/>
-        <v>1.0109088238581199</v>
+        <v>1.0144521997347784</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -3290,7 +3290,7 @@
       </c>
       <c r="B62">
         <f t="shared" si="3"/>
-        <v>1.0109088238582136</v>
+        <v>1.0144521997347737</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -3299,7 +3299,7 @@
       </c>
       <c r="B63">
         <f t="shared" si="3"/>
-        <v>1.0109088238582085</v>
+        <v>1.0144521997347689</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -3308,7 +3308,7 @@
       </c>
       <c r="B64">
         <f t="shared" si="3"/>
-        <v>1.0109088238582034</v>
+        <v>1.0144521997347642</v>
       </c>
     </row>
     <row r="65" spans="1:20">
@@ -3317,7 +3317,7 @@
       </c>
       <c r="B65">
         <f t="shared" si="3"/>
-        <v>1.0109088238582973</v>
+        <v>1.0144521997347595</v>
       </c>
     </row>
     <row r="66" spans="1:20">
@@ -3326,7 +3326,7 @@
       </c>
       <c r="B66">
         <f t="shared" si="3"/>
-        <v>1.0109088238582922</v>
+        <v>1.0144521997347549</v>
       </c>
     </row>
     <row r="67" spans="1:20">
@@ -3335,7 +3335,7 @@
       </c>
       <c r="B67">
         <f t="shared" si="3"/>
-        <v>1.0109088238582871</v>
+        <v>1.0144521997347502</v>
       </c>
     </row>
     <row r="68" spans="1:20">
@@ -3344,7 +3344,7 @@
       </c>
       <c r="B68">
         <f t="shared" si="3"/>
-        <v>1.010908823858282</v>
+        <v>1.0144521997347453</v>
       </c>
     </row>
     <row r="69" spans="1:20">
@@ -3353,7 +3353,7 @@
       </c>
       <c r="B69">
         <f t="shared" si="3"/>
-        <v>1.0109088238582769</v>
+        <v>1.0144521997347407</v>
       </c>
     </row>
     <row r="70" spans="1:20">
@@ -3362,7 +3362,7 @@
       </c>
       <c r="B70">
         <f t="shared" si="3"/>
-        <v>1.0109088238582717</v>
+        <v>1.014452199734736</v>
       </c>
     </row>
     <row r="71" spans="1:20">
@@ -3371,7 +3371,7 @@
       </c>
       <c r="B71">
         <f t="shared" si="3"/>
-        <v>1.0109088238582666</v>
+        <v>1.0144521997347313</v>
       </c>
     </row>
     <row r="72" spans="1:20">
@@ -3380,7 +3380,7 @@
       </c>
       <c r="B72">
         <f t="shared" si="3"/>
-        <v>1.0109088238581625</v>
+        <v>1.0144521997347267</v>
       </c>
     </row>
     <row r="73" spans="1:20">
@@ -3389,7 +3389,7 @@
       </c>
       <c r="B73">
         <f t="shared" si="3"/>
-        <v>1.0109088238582564</v>
+        <v>1.0144521997348128</v>
       </c>
     </row>
     <row r="74" spans="1:20">
@@ -3398,7 +3398,7 @@
       </c>
       <c r="B74">
         <f t="shared" si="3"/>
-        <v>1.0109088238583501</v>
+        <v>1.0144521997347171</v>
       </c>
     </row>
     <row r="75" spans="1:20">
@@ -3407,7 +3407,7 @@
       </c>
       <c r="B75">
         <f t="shared" si="3"/>
-        <v>1.010908823858246</v>
+        <v>1.0144521997348035</v>
       </c>
     </row>
     <row r="76" spans="1:20">
@@ -3416,7 +3416,7 @@
       </c>
       <c r="B76">
         <f t="shared" si="3"/>
-        <v>1.0109088238583399</v>
+        <v>1.0144521997347078</v>
       </c>
     </row>
     <row r="77" spans="1:20">
@@ -3425,7 +3425,7 @@
       </c>
       <c r="B77">
         <f t="shared" si="3"/>
-        <v>1.0109088238582358</v>
+        <v>1.0144521997347939</v>
       </c>
     </row>
     <row r="78" spans="1:20">
@@ -3434,7 +3434,7 @@
       </c>
       <c r="B78">
         <f t="shared" si="3"/>
-        <v>1.0109088238583297</v>
+        <v>1.0144521997346985</v>
       </c>
       <c r="N78" t="s">
         <v>1</v>
@@ -3462,7 +3462,7 @@
       </c>
       <c r="B79">
         <f t="shared" si="3"/>
-        <v>1.0109088238582256</v>
+        <v>1.0144521997347846</v>
       </c>
       <c r="N79" t="s">
         <v>0</v>
@@ -3490,7 +3490,7 @@
       </c>
       <c r="B80">
         <f t="shared" si="3"/>
-        <v>1.0109088238583195</v>
+        <v>1.0144521997346889</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -3499,7 +3499,7 @@
       </c>
       <c r="B81">
         <f t="shared" si="3"/>
-        <v>1.0109088238582153</v>
+        <v>1.0144521997347753</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -3508,7 +3508,7 @@
       </c>
       <c r="B82">
         <f t="shared" si="3"/>
-        <v>1.0109088238583093</v>
+        <v>1.0144521997348614</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -3517,7 +3517,7 @@
       </c>
       <c r="B83">
         <f t="shared" si="3"/>
-        <v>1.0109088238582051</v>
+        <v>1.0144521997347657</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -3526,7 +3526,7 @@
       </c>
       <c r="B84">
         <f t="shared" si="3"/>
-        <v>1.0109088238582991</v>
+        <v>1.0144521997348519</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -3535,7 +3535,7 @@
       </c>
       <c r="B85">
         <f t="shared" si="3"/>
-        <v>1.0109088238581949</v>
+        <v>1.0144521997347564</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B86">
         <f t="shared" si="3"/>
-        <v>1.0109088238582888</v>
+        <v>1.0144521997348426</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -3553,7 +3553,7 @@
       </c>
       <c r="B87">
         <f t="shared" si="3"/>
-        <v>1.0109088238581847</v>
+        <v>1.0144521997347471</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -3562,7 +3562,7 @@
       </c>
       <c r="B88">
         <f t="shared" si="3"/>
-        <v>1.0109088238582784</v>
+        <v>1.0144521997348332</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -3571,7 +3571,7 @@
       </c>
       <c r="B89">
         <f t="shared" si="3"/>
-        <v>1.0109088238583723</v>
+        <v>1.0144521997347375</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -3580,7 +3580,7 @@
       </c>
       <c r="B90">
         <f t="shared" si="3"/>
-        <v>1.0109088238582682</v>
+        <v>1.0144521997348237</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -3589,7 +3589,7 @@
       </c>
       <c r="B91">
         <f t="shared" si="3"/>
-        <v>1.0109088238583621</v>
+        <v>1.0144521997347282</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -3598,7 +3598,7 @@
       </c>
       <c r="B92">
         <f t="shared" si="3"/>
-        <v>1.010908823858258</v>
+        <v>1.0144521997348144</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -3607,7 +3607,7 @@
       </c>
       <c r="B93">
         <f t="shared" si="3"/>
-        <v>1.0109088238583519</v>
+        <v>1.0144521997347189</v>
       </c>
     </row>
   </sheetData>
